--- a/payless-web-tests/testData/Paylesscar_Anonymous_US.xlsx
+++ b/payless-web-tests/testData/Paylesscar_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/payless-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E551EE-15C3-F843-B6B5-C22DF5DEE00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DF1F4-5A61-A242-9628-4839A75C0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="120">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -773,7 +773,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,9 @@
       </c>
     </row>
     <row r="3" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1198,7 +1200,9 @@
       </c>
     </row>
     <row r="4" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
@@ -1333,7 +1337,9 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>62</v>
       </c>
@@ -1468,7 +1474,9 @@
       </c>
     </row>
     <row r="6" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
@@ -1603,7 +1611,9 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
@@ -1738,7 +1748,9 @@
       </c>
     </row>
     <row r="8" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B8" t="s">
         <v>101</v>
       </c>
@@ -1873,7 +1885,9 @@
       </c>
     </row>
     <row r="9" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B9" t="s">
         <v>102</v>
       </c>
@@ -2008,7 +2022,9 @@
       </c>
     </row>
     <row r="10" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B10" t="s">
         <v>103</v>
       </c>
@@ -2143,7 +2159,9 @@
       </c>
     </row>
     <row r="11" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="B11" t="s">
         <v>104</v>
       </c>

--- a/payless-web-tests/testData/Paylesscar_Anonymous_US.xlsx
+++ b/payless-web-tests/testData/Paylesscar_Anonymous_US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/payless-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DF1F4-5A61-A242-9628-4839A75C0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DB71BF-07A9-F642-990D-6468685B4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
